--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_07_end.xlsx
@@ -724,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  I can’t believe Reunion here is so tough. Hmph, I won’t lose to you!
+    <t xml:space="preserve">[name="Ceobe"]  I can't believe Reunion here is so tough. Hmph, I won't lose to you!
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Oh, it’s Gavial! Everyone else too!
+    <t xml:space="preserve">[name="Ceobe"]  Oh, it's Gavial! Everyone else too!
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Doctor, please don’t be mad...
+    <t xml:space="preserve">[name="Ceobe"]  Doctor, please don't be mad...
 </t>
   </si>
   <si>
@@ -768,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Looks like she’s back to her senses, at least.
+    <t xml:space="preserve">[name="Gavial"]  Looks like she's back to her senses, at least.
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Come lie down, I’ll check and see if there’s anything wrong with you. Don’t run off again.
+    <t xml:space="preserve">[name="Gavial"]  Come lie down, I'll check and see if there's anything wrong with you. Don't run off again.
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  We’re... Hm, it’s a long story. Just lie down already!
+    <t xml:space="preserve">[name="Gavial"]  We're... Hm, it's a long story. Just lie down already!
 </t>
   </si>
   <si>
@@ -804,7 +804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Ugh, that’s a long story too. Just let me work.
+    <t xml:space="preserve">[name="Gavial"]  Ugh, that's a long story too. Just let me work.
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Alright, everything looks okay. Go wait with the Doctor and don’t wander off. If you do it again, it’s no more honey biscuits for you.
+    <t xml:space="preserve">[name="Gavial"]  Alright, everything looks okay. Go wait with the Doctor and don't wander off. If you do it again, it's no more honey biscuits for you.
 </t>
   </si>
   <si>
@@ -828,23 +828,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  So now can you tell me what the hell you’re doing, Gavial?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  *Sigh*, I said it’s a long story. Short version is I’m here to look for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’re not getting the engine back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  That too. But there’s another reason I’m looking for you.
+    <t xml:space="preserve">[name="Gavial"]  I'm done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  So now can you tell me what the hell you're doing, Gavial?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  *Sigh*, I said it's a long story. Short version is I'm here to look for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  You're not getting the engine back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  That too. But there's another reason I'm looking for you.
 </t>
   </si>
   <si>
@@ -872,19 +872,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  No, your Big Ugly Whatever is great. I’m totally fine with that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But if you’re putting your people at risk of Oripathy infection for the sake of some ore, then as a doctor I have no choice but to stop you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Huh? Oripathy? Oh, you’re talking about Stone Disease.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’m not putting anyone at risk.
+    <t xml:space="preserve">[name="Gavial"]  No, your Big Ugly Whatever is great. I'm totally fine with that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But if you're putting your people at risk of Oripathy infection for the sake of some ore, then as a doctor I have no choice but to stop you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Huh? Oripathy? Oh, you're talking about Stone Disease.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I'm not putting anyone at risk.
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  There’s always someone who doesn’t listen. I can’t control them all. Isn’t that right, Yogi?
+    <t xml:space="preserve">[name="Eunectes"]  There's always someone who doesn't listen. I can't control them all. Isn't that right, Yogi?
 </t>
   </si>
   <si>
@@ -908,19 +908,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? Why didn’t you say so earlier?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Yogi"]  You didn’t ask.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  That’s pretty important...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You told me they don’t take Oripathy seriously here.;.......;You really didn’t ask.",values="1;2;3")]
+    <t xml:space="preserve">[name="Gavial"]  Huh? Why didn't you say so earlier?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yogi"]  You didn't ask.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  That's pretty important...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You told me they don't take Oripathy seriously here.;.......;You really didn't ask.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’ve been running around the mine ever since I was a kid. It’s only natural I would get the Stone Disease.
+    <t xml:space="preserve">[name="Eunectes"]  I've been running around the mine ever since I was a kid. It's only natural I would get the Stone Disease.
 </t>
   </si>
   <si>
@@ -968,35 +968,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  It’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Eh, that’s all it took?! We’re all good now?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Isn’t everybody supposed to stubbornly stick to their guns until we all end up in one big honkin’ battle?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Ya shouldn’t hope fer stuff like that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Gavial isn’t like that.;......;Too bad.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Then let’s talk about the other thing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You have our engine, don’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Can you return that to us? We can’t leave without it.
+    <t xml:space="preserve">[name="Eunectes"]  It's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Eh, that's all it took?! We're all good now?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Isn't everybody supposed to stubbornly stick to their guns until we all end up in one big honkin' battle?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ya shouldn't hope fer stuff like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Gavial isn't like that.;......;Too bad.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Then let's talk about the other thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You have our engine, don't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Can you return that to us? We can't leave without it.
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You won’t hand it over no matter what?
+    <t xml:space="preserve">[name="Gavial"]  You won't hand it over no matter what?
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Oh, looks like we’re gonna fight after all.
+    <t xml:space="preserve">[name="Utage"]  Oh, looks like we're gonna fight after all.
 </t>
   </si>
   <si>
@@ -1044,7 +1044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Huh? Aren’t we going to fight Gavial? Do we not need it? If not, I’ll drive it back. I still want to test the engine.
+    <t xml:space="preserve">[name="High Priest"]  Huh? Aren't we going to fight Gavial? Do we not need it? If not, I'll drive it back. I still want to test the engine.
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  That’s right, your engine is powering the Big Ugly right now. If you want it, you’ll have to fight for it.
+    <t xml:space="preserve">[name="Eunectes"]  That's right, your engine is powering the Big Ugly right now. If you want it, you'll have to fight for it.
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Come with me. We’ll see who comes out on top.
+    <t xml:space="preserve">[name="Eunectes"]  Come with me. We'll see who comes out on top.
 </t>
   </si>
   <si>
